--- a/Usefull Links.xlsx
+++ b/Usefull Links.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Online links" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="237">
   <si>
     <t>http://haacked.com/archive/2011/08/18/calling-asp-net-mvc-action-methods-from-javascript.aspx/</t>
   </si>
@@ -614,13 +614,140 @@
   </si>
   <si>
     <t>Flippant.js A mini js+css library for flipping things over.</t>
+  </si>
+  <si>
+    <t>http://forums.asp.net/t/1009841.aspx?Missing+Microsoft+ReportViewer+ProcessingObjectModel+dll</t>
+  </si>
+  <si>
+    <t>Missing Microsoft.ReportViewer.ProcessingObjectModel.dll</t>
+  </si>
+  <si>
+    <t>https://quickstarts.asp.net/</t>
+  </si>
+  <si>
+    <t>Welcome to the Microsoft .NET Framework SDK QuickStart Tutorials</t>
+  </si>
+  <si>
+    <t>https://www.textlocal.in/simple-developer-sms-api</t>
+  </si>
+  <si>
+    <t>SMS API - Automate Texting From Any Script
+Instantly text phones worldwide as easily as POSTing a form</t>
+  </si>
+  <si>
+    <t>http://www.convert-in.com/sql2mss.htm</t>
+  </si>
+  <si>
+    <t>MySQL-to-MSSQL is a program to migrate MySQL databases to Microsoft SQL server. Command line support allows to script, automate and schedule the conversion process.</t>
+  </si>
+  <si>
+    <t>http://www.codeproject.com/Articles/29106/Migrate-MySQL-to-Microsoft-SQL-Server</t>
+  </si>
+  <si>
+    <t>Migrate MySQL to Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/2621682/import-mysql-database-into-a-ms-sql-server</t>
+  </si>
+  <si>
+    <t>https://www.mssqltips.com/sqlservertutorial/2205/mysql-to-sql-server-data-migration/</t>
+  </si>
+  <si>
+    <t>https://www.keycdn.com/blog/web-development-tools/</t>
+  </si>
+  <si>
+    <t>100+ Awesome Web Development Tools and Resources</t>
+  </si>
+  <si>
+    <t>https://msdn.microsoft.com/en-us/library/5k850zwb.aspx</t>
+  </si>
+  <si>
+    <t>Understanding Role Management</t>
+  </si>
+  <si>
+    <t>http://www.aspsnippets.com/Articles/Implement-Role-based-security-Page-access-and-ShowHide-Menu-items-based-on-Role-in-ASPNet.aspx</t>
+  </si>
+  <si>
+    <t>Implement Role based security, Page access and Show/Hide Menu items based on Role in ASP.Net</t>
+  </si>
+  <si>
+    <t>http://www.sqlines.com/online</t>
+  </si>
+  <si>
+    <t>any query to any query for db (ms access to mssql)</t>
+  </si>
+  <si>
+    <t>https://www.razorsql.com/docs/how_to_database_conversion.html</t>
+  </si>
+  <si>
+    <t>RazorSQL How to - Database Conversion</t>
+  </si>
+  <si>
+    <t>http://www.activedbsoft.com/overview-querytool.html</t>
+  </si>
+  <si>
+    <t>Free SQL Query Tool for any database</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/3572449/convert-sql-query-for-a-different-database</t>
+  </si>
+  <si>
+    <t>Convert SQL query for a different database</t>
+  </si>
+  <si>
+    <t>http://www.entityframeworktutorial.net/Querying-with-EDM.aspx</t>
+  </si>
+  <si>
+    <t>Querying with EDM:</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/kb/294698</t>
+  </si>
+  <si>
+    <t>How to configure Jet 4.0 to prevent unsafe functions from running in Access 2003</t>
+  </si>
+  <si>
+    <t>http://tektutorialshub.com/install-crystal-reports-visual-studio/</t>
+  </si>
+  <si>
+    <t>http://tektutorialshub.com/how-to-download-and-install-crystal-report-runtime/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Report Link1 </t>
+  </si>
+  <si>
+    <t>Crystal Report Link2</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/20227170/accessing-asp-net-controls-using-jquery-all-options</t>
+  </si>
+  <si>
+    <t>Accessing Asp.net controls using jquery (all options)</t>
+  </si>
+  <si>
+    <t>http://www.aspsnippets.com/Articles/Call-ASPNet-Page-Method-using-jQuery-AJAX-Example.aspx</t>
+  </si>
+  <si>
+    <t>Call ASP.Net Page Method using jQuery AJAX Example</t>
+  </si>
+  <si>
+    <t>http://www.aspsnippets.com/Articles/Call-Code-Behind-Server-Side-function-from-Client-Side-code-in-ASPNet-using-C-and-VBNet.aspx</t>
+  </si>
+  <si>
+    <t>Call Code Behind (Server Side) function from Client Side code in ASP.Net using C# and VB.Net</t>
+  </si>
+  <si>
+    <t>http://www.aspsnippets.com/Articles/Return-JSON-data-object-from-WebMethod-PageMethod-in-ASPNet-using-C-and-VBNet.aspx</t>
+  </si>
+  <si>
+    <t>Return JSON data (object) from WebMethod (PageMethod) in ASP.Net using C# and VB.Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +787,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,7 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -773,6 +907,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -867,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,7 +1042,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1111,37 +1251,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="70.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="70.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="55.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="17"/>
+    <col min="2" max="2" width="70.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="70.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="55.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="40" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="38.109375" customWidth="1"/>
+    <col min="9" max="9" width="45.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -1160,13 +1299,12 @@
       <c r="H2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1185,11 +1323,10 @@
       <c r="H3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
@@ -1198,11 +1335,11 @@
       <c r="F4" s="7"/>
       <c r="G4" s="3"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="7"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1221,11 +1358,10 @@
       <c r="H5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
@@ -1234,11 +1370,11 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="7"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1257,11 +1393,10 @@
       <c r="H7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3"/>
@@ -1270,11 +1405,11 @@
       <c r="F8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="7"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -1293,11 +1428,10 @@
       <c r="H9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -1306,11 +1440,11 @@
       <c r="F10" s="11"/>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="7"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>5</v>
       </c>
@@ -1329,11 +1463,10 @@
       <c r="H11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
@@ -1342,11 +1475,11 @@
       <c r="F12" s="11"/>
       <c r="G12" s="3"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="7"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>6</v>
       </c>
@@ -1365,11 +1498,10 @@
       <c r="H13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
@@ -1378,11 +1510,11 @@
       <c r="F14" s="11"/>
       <c r="G14" s="3"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="7"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1401,11 +1533,10 @@
       <c r="H15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -1423,7 +1554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
@@ -1431,9 +1562,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="7"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -1451,7 +1582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="3"/>
@@ -1459,9 +1590,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="7"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>10</v>
       </c>
@@ -1479,10 +1610,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>11</v>
       </c>
@@ -1500,10 +1631,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>12</v>
       </c>
@@ -1521,10 +1652,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>13</v>
       </c>
@@ -1542,10 +1673,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>14</v>
       </c>
@@ -1563,10 +1694,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>15</v>
       </c>
@@ -1584,10 +1715,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -1605,10 +1736,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>17</v>
       </c>
@@ -1626,10 +1757,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>18</v>
       </c>
@@ -1647,10 +1778,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>19</v>
       </c>
@@ -1668,10 +1799,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>20</v>
       </c>
@@ -1689,10 +1820,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>21</v>
       </c>
@@ -1710,7 +1841,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>22</v>
       </c>
@@ -1727,7 +1858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>23</v>
       </c>
@@ -1744,7 +1875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>24</v>
       </c>
@@ -1761,7 +1892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>25</v>
       </c>
@@ -1778,7 +1909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>26</v>
       </c>
@@ -1795,7 +1926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -1812,7 +1943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>28</v>
       </c>
@@ -1829,7 +1960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>29</v>
       </c>
@@ -1846,7 +1977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>30</v>
       </c>
@@ -1863,7 +1994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>31</v>
       </c>
@@ -1880,7 +2011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>32</v>
       </c>
@@ -1897,7 +2028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>33</v>
       </c>
@@ -1914,7 +2045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>34</v>
       </c>
@@ -1931,10 +2062,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>35</v>
       </c>
@@ -1951,7 +2082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>36</v>
       </c>
@@ -1968,7 +2099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>37</v>
       </c>
@@ -1985,7 +2116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>38</v>
       </c>
@@ -2002,7 +2133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>39</v>
       </c>
@@ -2019,7 +2150,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="8"/>
       <c r="C80" s="3"/>
@@ -2028,9 +2159,9 @@
       <c r="F80" s="7"/>
       <c r="G80" s="3"/>
       <c r="H80" s="20"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>40</v>
       </c>
@@ -2049,9 +2180,9 @@
       <c r="H81" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>41</v>
       </c>
@@ -2068,7 +2199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>42</v>
       </c>
@@ -2085,7 +2216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>43</v>
       </c>
@@ -2100,6 +2231,344 @@
       </c>
       <c r="H87" s="20" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <v>44</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <v>45</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <v>46</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <v>47</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <v>48</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <v>49</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>50</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <v>51</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
+        <v>52</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
+        <v>53</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="17">
+        <v>54</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="17">
+        <v>55</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="17">
+        <v>56</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="17">
+        <v>57</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
+        <v>58</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="17">
+        <v>59</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D120" s="19"/>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="17">
+        <v>60</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="17">
+        <v>61</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="17">
+        <v>62</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2149,9 +2618,28 @@
     <hyperlink ref="D81" r:id="rId43"/>
     <hyperlink ref="B85" r:id="rId44"/>
     <hyperlink ref="B87" r:id="rId45"/>
+    <hyperlink ref="B89" r:id="rId46"/>
+    <hyperlink ref="B91" r:id="rId47"/>
+    <hyperlink ref="B93" r:id="rId48"/>
+    <hyperlink ref="B95" r:id="rId49"/>
+    <hyperlink ref="B97" r:id="rId50"/>
+    <hyperlink ref="H97" r:id="rId51"/>
+    <hyperlink ref="I97" r:id="rId52"/>
+    <hyperlink ref="B99" r:id="rId53"/>
+    <hyperlink ref="B101" r:id="rId54"/>
+    <hyperlink ref="B103" r:id="rId55"/>
+    <hyperlink ref="B105" r:id="rId56"/>
+    <hyperlink ref="B107" r:id="rId57"/>
+    <hyperlink ref="B109" r:id="rId58"/>
+    <hyperlink ref="B111" r:id="rId59"/>
+    <hyperlink ref="B113" r:id="rId60"/>
+    <hyperlink ref="B119" r:id="rId61"/>
+    <hyperlink ref="B121" r:id="rId62"/>
+    <hyperlink ref="B123" r:id="rId63"/>
+    <hyperlink ref="B125" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -2163,15 +2651,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="56.77734375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="54.109375" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2680,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2206,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2220,7 +2708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2247,15 +2735,15 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="8.85546875" style="23"/>
     <col min="2" max="2" width="89" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -2266,7 +2754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2277,10 +2765,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -2291,7 +2779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -2302,7 +2790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -2313,7 +2801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2324,7 +2812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -2335,7 +2823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -2346,7 +2834,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -2357,7 +2845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>9</v>
       </c>
@@ -2387,21 +2875,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D46"/>
+  <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="23" customWidth="1"/>
-    <col min="2" max="2" width="82.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
@@ -2415,7 +2903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2429,7 +2917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -2443,7 +2931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -2457,7 +2945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -2471,7 +2959,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2485,7 +2973,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -2499,7 +2987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -2513,7 +3001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -2527,7 +3015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>9</v>
       </c>
@@ -2541,7 +3029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>10</v>
       </c>
@@ -2555,7 +3043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>11</v>
       </c>
@@ -2569,7 +3057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>12</v>
       </c>
@@ -2583,7 +3071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>13</v>
       </c>
@@ -2597,7 +3085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>14</v>
       </c>
@@ -2611,7 +3099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>15</v>
       </c>
@@ -2625,7 +3113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>16</v>
       </c>
@@ -2639,7 +3127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>17</v>
       </c>
@@ -2653,7 +3141,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>18</v>
       </c>
@@ -2667,7 +3155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>19</v>
       </c>
@@ -2681,7 +3169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>20</v>
       </c>
@@ -2695,7 +3183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>21</v>
       </c>
@@ -2709,7 +3197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>22</v>
       </c>
@@ -2720,6 +3208,20 @@
         <v>194</v>
       </c>
       <c r="D46" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2750,6 +3252,7 @@
     <hyperlink ref="B42" r:id="rId23"/>
     <hyperlink ref="B44" r:id="rId24"/>
     <hyperlink ref="B46" r:id="rId25"/>
+    <hyperlink ref="B48" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,14 +3266,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
-    <col min="2" max="3" width="62.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="23"/>
+    <col min="2" max="3" width="62.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -2784,7 +3287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2798,7 +3301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -2812,7 +3315,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -2826,7 +3329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -2840,7 +3343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2854,7 +3357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -2868,7 +3371,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -2882,13 +3385,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>8</v>
       </c>

--- a/Usefull Links.xlsx
+++ b/Usefull Links.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Online links" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Articals" sheetId="3" r:id="rId3"/>
     <sheet name="Css Help &amp; Snippets" sheetId="4" r:id="rId4"/>
     <sheet name="Anuglar JS" sheetId="5" r:id="rId5"/>
+    <sheet name="JS Plugins and Tricks" sheetId="6" r:id="rId6"/>
+    <sheet name="Google Search Link" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="256">
   <si>
     <t>http://haacked.com/archive/2011/08/18/calling-asp-net-mvc-action-methods-from-javascript.aspx/</t>
   </si>
@@ -741,6 +743,63 @@
   </si>
   <si>
     <t>Return JSON data (object) from WebMethod (PageMethod) in ASP.Net using C# and VB.Net</t>
+  </si>
+  <si>
+    <t>http://tutorialzine.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorialzine is a site dedicated to bringing you the coolest web development tutorials and resources. </t>
+  </si>
+  <si>
+    <t>http://www.jqueryrain.com/2013/10/best-jquery-webcam-plugin-example/</t>
+  </si>
+  <si>
+    <t>10+ Best jQuery Webcam Plugin with example</t>
+  </si>
+  <si>
+    <t>https://www.chromeexperiments.com/experiment/gesture-based-revealjs</t>
+  </si>
+  <si>
+    <t>Reveal.js with Webcam-based gesture recognition</t>
+  </si>
+  <si>
+    <t>https://github.com/blueimp/jQuery-File-Upload</t>
+  </si>
+  <si>
+    <t>jQuery File Upload Plugin</t>
+  </si>
+  <si>
+    <t>http://www.creativebloq.com/jquery/top-jquery-plugins-6133175</t>
+  </si>
+  <si>
+    <t>16 brilliant jQuery plugins</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/#q=best+image+upload+or+capture+plugins+in+jquery</t>
+  </si>
+  <si>
+    <t>best image upload or capture plugins in jquery</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/search?sclient=psy-ab&amp;biw=1536&amp;bih=736&amp;q=best+user+pictures+getting+plugins+in+jquery&amp;oq=best+user+pictures+getting+plugins+in+jquery&amp;gs_l=hp.3...1566.86785.0.87165.69.59.4.6.6.0.314.9178.1j46j8j1.56.0....0...1c.1.64.psy-ab..4.60.8011...0j0i131k1j0i10k1j0i8i7i30k1j0i7i5i30k1j0i8i30k1j0i13k1j0i7i30k1j0i22i30k1j33i22i29i30k1j33i21k1j33i160k1.7V3iKqxPTQU&amp;pbx=1&amp;bav=on.2,or.&amp;bvm=bv.145822982,d.c2I&amp;ech=1&amp;psi=4diRWMDCEcb8vATmjoGADw.1485953251522.3&amp;ei=5tiRWNWIGIjzvgTqsqegCA&amp;emsg=NCSR&amp;noj=1</t>
+  </si>
+  <si>
+    <t>best user pictures getting plugins in jquery</t>
+  </si>
+  <si>
+    <t>https://webrtc.org/</t>
+  </si>
+  <si>
+    <t>WebRTC is a free, open project that provides browsers and mobile applications with Real-Time Communications (RTC) capabilities via simple APIs.</t>
+  </si>
+  <si>
+    <t>https://www.kirupa.com/html5/accessing_your_webcam_in_html5.htm</t>
+  </si>
+  <si>
+    <t>Accessing Your Webcam in HTML</t>
   </si>
 </sst>
 </file>
@@ -844,7 +903,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -913,6 +972,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1007,7 +1069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,7 +1104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1253,34 +1315,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="17"/>
-    <col min="2" max="2" width="70.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="70.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="55.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="70.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="70.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="55.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="40" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -1304,7 +1366,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1326,7 +1388,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
@@ -1339,7 +1401,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1361,7 +1423,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
@@ -1374,7 +1436,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1396,7 +1458,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3"/>
@@ -1431,7 +1493,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -1466,7 +1528,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
@@ -1479,7 +1541,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>6</v>
       </c>
@@ -1501,7 +1563,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
@@ -1514,7 +1576,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1554,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
@@ -1564,7 +1626,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -1582,7 +1644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="3"/>
@@ -1610,10 +1672,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>11</v>
       </c>
@@ -1631,7 +1693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G24"/>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1652,10 +1714,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>13</v>
       </c>
@@ -1673,10 +1735,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>14</v>
       </c>
@@ -1694,10 +1756,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>15</v>
       </c>
@@ -1715,7 +1777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G32"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1736,7 +1798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="G34"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1757,7 +1819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="G36"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1778,7 +1840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="G38"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1799,7 +1861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="G40"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1820,7 +1882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="G42"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1909,7 +1971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>26</v>
       </c>
@@ -1977,7 +2039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>30</v>
       </c>
@@ -2062,7 +2124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2150,7 +2212,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="8"/>
       <c r="C80" s="3"/>
@@ -2199,7 +2261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>42</v>
       </c>
@@ -2321,7 +2383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>49</v>
       </c>
@@ -2355,7 +2417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>51</v>
       </c>
@@ -2372,7 +2434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>52</v>
       </c>
@@ -2389,7 +2451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>53</v>
       </c>
@@ -2423,7 +2485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>55</v>
       </c>
@@ -2457,7 +2519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>57</v>
       </c>
@@ -2491,7 +2553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D118" s="19"/>
     </row>
     <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2511,7 +2573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2531,7 +2593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D122" s="19"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2551,7 +2613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D124" s="19"/>
     </row>
     <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2651,15 +2713,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="7" customWidth="1"/>
     <col min="5" max="5" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
@@ -2694,7 +2756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2708,7 +2770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2729,21 +2791,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="23"/>
+    <col min="1" max="1" width="8.88671875" style="23"/>
     <col min="2" max="2" width="89" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="65.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -2754,7 +2816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2765,10 +2827,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -2801,7 +2863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2823,7 +2885,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -2834,7 +2896,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -2854,6 +2916,17 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>10</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2867,9 +2940,10 @@
     <hyperlink ref="B16" r:id="rId7"/>
     <hyperlink ref="B18" r:id="rId8"/>
     <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2881,15 +2955,15 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="23" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
@@ -2903,7 +2977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2931,7 +3005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -2973,7 +3047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -2987,7 +3061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -3001,7 +3075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -3015,7 +3089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>9</v>
       </c>
@@ -3057,7 +3131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>12</v>
       </c>
@@ -3127,7 +3201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>17</v>
       </c>
@@ -3169,7 +3243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>20</v>
       </c>
@@ -3197,7 +3271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>22</v>
       </c>
@@ -3211,7 +3285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>23</v>
       </c>
@@ -3266,14 +3340,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="23"/>
-    <col min="2" max="3" width="62.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="2" max="3" width="62.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -3287,7 +3361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -3301,7 +3375,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3315,7 +3389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -3329,7 +3403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -3371,7 +3445,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -3385,7 +3459,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3419,4 +3493,234 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="23"/>
+    <col min="2" max="2" width="62.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="16.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="107.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29">
+        <v>42737</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29">
+        <v>42737</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" location="q=best+image+upload+or+capture+plugins+in+jquery"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Usefull Links.xlsx
+++ b/Usefull Links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="270">
   <si>
     <t>http://haacked.com/archive/2011/08/18/calling-asp-net-mvc-action-methods-from-javascript.aspx/</t>
   </si>
@@ -800,6 +800,48 @@
   </si>
   <si>
     <t>Accessing Your Webcam in HTML</t>
+  </si>
+  <si>
+    <t>http://plugins.krajee.com/file-input</t>
+  </si>
+  <si>
+    <t>http://github.com/kartik-v/bootstrap-file-input</t>
+  </si>
+  <si>
+    <t>bootstrap-fileinput</t>
+  </si>
+  <si>
+    <t>MySnooker</t>
+  </si>
+  <si>
+    <t>http://blog.teamtreehouse.com/writing-your-own-jquery-plugins</t>
+  </si>
+  <si>
+    <t>https://learn.jquery.com/plugins/basic-plugin-creation/</t>
+  </si>
+  <si>
+    <t>How to Create a Basic Plugin</t>
+  </si>
+  <si>
+    <t>https://www.sitepoint.com/</t>
+  </si>
+  <si>
+    <t>Articals</t>
+  </si>
+  <si>
+    <t>https://twitter.github.io/typeahead.js/</t>
+  </si>
+  <si>
+    <t>https://github.com/twitter/typeahead.js</t>
+  </si>
+  <si>
+    <t>a flexible JavaScript library that provides a strong foundation for building robust typeaheads (AUTO SUGGESTION)</t>
+  </si>
+  <si>
+    <t>SUGGESTION</t>
+  </si>
+  <si>
+    <t>Don’t Use</t>
   </si>
 </sst>
 </file>
@@ -903,7 +945,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -974,6 +1016,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,7 +1689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="3"/>
@@ -1654,7 +1699,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>10</v>
       </c>
@@ -1672,10 +1717,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>11</v>
       </c>
@@ -1693,10 +1738,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>12</v>
       </c>
@@ -1714,10 +1759,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>13</v>
       </c>
@@ -1735,10 +1780,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>14</v>
       </c>
@@ -1756,10 +1801,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>15</v>
       </c>
@@ -1777,10 +1822,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>16</v>
       </c>
@@ -1798,10 +1843,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>17</v>
       </c>
@@ -1819,10 +1864,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>18</v>
       </c>
@@ -1840,10 +1885,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>19</v>
       </c>
@@ -1861,10 +1906,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>20</v>
       </c>
@@ -1882,10 +1927,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>21</v>
       </c>
@@ -1903,7 +1948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>22</v>
       </c>
@@ -1920,7 +1965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>23</v>
       </c>
@@ -1937,7 +1982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>24</v>
       </c>
@@ -1954,7 +1999,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>25</v>
       </c>
@@ -1971,7 +2016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>26</v>
       </c>
@@ -1988,7 +2033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>27</v>
       </c>
@@ -2005,7 +2050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>28</v>
       </c>
@@ -2022,7 +2067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>29</v>
       </c>
@@ -2039,7 +2084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>30</v>
       </c>
@@ -2056,7 +2101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>31</v>
       </c>
@@ -2073,7 +2118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>32</v>
       </c>
@@ -2090,7 +2135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>33</v>
       </c>
@@ -2107,7 +2152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>34</v>
       </c>
@@ -2124,10 +2169,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>35</v>
       </c>
@@ -2144,7 +2189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>36</v>
       </c>
@@ -2161,7 +2206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="17">
         <v>37</v>
       </c>
@@ -2178,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>38</v>
       </c>
@@ -2195,7 +2240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>39</v>
       </c>
@@ -2212,7 +2257,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="8"/>
       <c r="C80" s="3"/>
@@ -2223,7 +2268,7 @@
       <c r="H80" s="20"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>40</v>
       </c>
@@ -2244,7 +2289,7 @@
       </c>
       <c r="I81" s="7"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>41</v>
       </c>
@@ -2261,7 +2306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>42</v>
       </c>
@@ -2278,7 +2323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>43</v>
       </c>
@@ -2295,7 +2340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>44</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>45</v>
       </c>
@@ -2329,7 +2374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>46</v>
       </c>
@@ -2346,7 +2391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>47</v>
       </c>
@@ -2363,7 +2408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>48</v>
       </c>
@@ -2383,7 +2428,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>49</v>
       </c>
@@ -2400,7 +2445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>50</v>
       </c>
@@ -2417,7 +2462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>51</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>52</v>
       </c>
@@ -2451,7 +2496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>53</v>
       </c>
@@ -2468,7 +2513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>54</v>
       </c>
@@ -2485,7 +2530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>55</v>
       </c>
@@ -2502,7 +2547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>56</v>
       </c>
@@ -2519,7 +2564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>57</v>
       </c>
@@ -2536,7 +2581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>58</v>
       </c>
@@ -2553,10 +2598,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
         <v>59</v>
       </c>
@@ -2573,10 +2618,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
     </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>60</v>
       </c>
@@ -2593,10 +2638,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D122" s="19"/>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>61</v>
       </c>
@@ -2613,10 +2658,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D124" s="19"/>
     </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>62</v>
       </c>
@@ -2791,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C24:C25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,6 +2974,17 @@
         <v>238</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
@@ -2941,9 +2997,10 @@
     <hyperlink ref="B18" r:id="rId8"/>
     <hyperlink ref="B20" r:id="rId9"/>
     <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B24" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3497,10 +3554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,6 +3567,7 @@
     <col min="3" max="3" width="62.33203125" style="20" customWidth="1"/>
     <col min="4" max="4" width="62.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3528,7 +3586,9 @@
       <c r="E2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="30" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
@@ -3546,6 +3606,9 @@
       <c r="E4" s="20" t="s">
         <v>66</v>
       </c>
+      <c r="F4" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
@@ -3563,6 +3626,9 @@
       <c r="E6" s="20" t="s">
         <v>66</v>
       </c>
+      <c r="F6" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
@@ -3580,6 +3646,9 @@
       <c r="E8" s="20" t="s">
         <v>66</v>
       </c>
+      <c r="F8" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
@@ -3600,11 +3669,14 @@
       <c r="E10" s="20" t="s">
         <v>66</v>
       </c>
+      <c r="F10" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -3618,6 +3690,9 @@
         <v>253</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3639,6 +3714,83 @@
       </c>
       <c r="E14" s="20" t="s">
         <v>66</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>8</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>10</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3650,9 +3802,16 @@
     <hyperlink ref="B10" r:id="rId5"/>
     <hyperlink ref="B12" r:id="rId6"/>
     <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+    <hyperlink ref="C16" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="C18" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId12"/>
+    <hyperlink ref="B22" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Usefull Links.xlsx
+++ b/Usefull Links.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Online links" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,13 @@
     <sheet name="Articals" sheetId="3" r:id="rId3"/>
     <sheet name="Css Help &amp; Snippets" sheetId="4" r:id="rId4"/>
     <sheet name="Anuglar JS" sheetId="5" r:id="rId5"/>
-    <sheet name="JS Plugins and Tricks" sheetId="6" r:id="rId6"/>
-    <sheet name="Google Search Link" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="233">
   <si>
     <t>http://haacked.com/archive/2011/08/18/calling-asp-net-mvc-action-methods-from-javascript.aspx/</t>
   </si>
@@ -721,127 +719,16 @@
     <t>Crystal Report Link2</t>
   </si>
   <si>
-    <t>http://stackoverflow.com/questions/20227170/accessing-asp-net-controls-using-jquery-all-options</t>
-  </si>
-  <si>
-    <t>Accessing Asp.net controls using jquery (all options)</t>
-  </si>
-  <si>
-    <t>http://www.aspsnippets.com/Articles/Call-ASPNet-Page-Method-using-jQuery-AJAX-Example.aspx</t>
-  </si>
-  <si>
-    <t>Call ASP.Net Page Method using jQuery AJAX Example</t>
-  </si>
-  <si>
-    <t>http://www.aspsnippets.com/Articles/Call-Code-Behind-Server-Side-function-from-Client-Side-code-in-ASPNet-using-C-and-VBNet.aspx</t>
-  </si>
-  <si>
-    <t>Call Code Behind (Server Side) function from Client Side code in ASP.Net using C# and VB.Net</t>
-  </si>
-  <si>
-    <t>http://www.aspsnippets.com/Articles/Return-JSON-data-object-from-WebMethod-PageMethod-in-ASPNet-using-C-and-VBNet.aspx</t>
-  </si>
-  <si>
-    <t>Return JSON data (object) from WebMethod (PageMethod) in ASP.Net using C# and VB.Net</t>
-  </si>
-  <si>
-    <t>http://tutorialzine.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorialzine is a site dedicated to bringing you the coolest web development tutorials and resources. </t>
-  </si>
-  <si>
-    <t>http://www.jqueryrain.com/2013/10/best-jquery-webcam-plugin-example/</t>
-  </si>
-  <si>
-    <t>10+ Best jQuery Webcam Plugin with example</t>
-  </si>
-  <si>
-    <t>https://www.chromeexperiments.com/experiment/gesture-based-revealjs</t>
-  </si>
-  <si>
-    <t>Reveal.js with Webcam-based gesture recognition</t>
-  </si>
-  <si>
-    <t>https://github.com/blueimp/jQuery-File-Upload</t>
-  </si>
-  <si>
-    <t>jQuery File Upload Plugin</t>
-  </si>
-  <si>
-    <t>http://www.creativebloq.com/jquery/top-jquery-plugins-6133175</t>
-  </si>
-  <si>
-    <t>16 brilliant jQuery plugins</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/#q=best+image+upload+or+capture+plugins+in+jquery</t>
-  </si>
-  <si>
-    <t>best image upload or capture plugins in jquery</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/search?sclient=psy-ab&amp;biw=1536&amp;bih=736&amp;q=best+user+pictures+getting+plugins+in+jquery&amp;oq=best+user+pictures+getting+plugins+in+jquery&amp;gs_l=hp.3...1566.86785.0.87165.69.59.4.6.6.0.314.9178.1j46j8j1.56.0....0...1c.1.64.psy-ab..4.60.8011...0j0i131k1j0i10k1j0i8i7i30k1j0i7i5i30k1j0i8i30k1j0i13k1j0i7i30k1j0i22i30k1j33i22i29i30k1j33i21k1j33i160k1.7V3iKqxPTQU&amp;pbx=1&amp;bav=on.2,or.&amp;bvm=bv.145822982,d.c2I&amp;ech=1&amp;psi=4diRWMDCEcb8vATmjoGADw.1485953251522.3&amp;ei=5tiRWNWIGIjzvgTqsqegCA&amp;emsg=NCSR&amp;noj=1</t>
-  </si>
-  <si>
-    <t>best user pictures getting plugins in jquery</t>
-  </si>
-  <si>
-    <t>https://webrtc.org/</t>
-  </si>
-  <si>
-    <t>WebRTC is a free, open project that provides browsers and mobile applications with Real-Time Communications (RTC) capabilities via simple APIs.</t>
-  </si>
-  <si>
-    <t>https://www.kirupa.com/html5/accessing_your_webcam_in_html5.htm</t>
-  </si>
-  <si>
-    <t>Accessing Your Webcam in HTML</t>
-  </si>
-  <si>
-    <t>http://plugins.krajee.com/file-input</t>
-  </si>
-  <si>
-    <t>http://github.com/kartik-v/bootstrap-file-input</t>
-  </si>
-  <si>
-    <t>bootstrap-fileinput</t>
-  </si>
-  <si>
-    <t>MySnooker</t>
-  </si>
-  <si>
-    <t>http://blog.teamtreehouse.com/writing-your-own-jquery-plugins</t>
-  </si>
-  <si>
-    <t>https://learn.jquery.com/plugins/basic-plugin-creation/</t>
-  </si>
-  <si>
-    <t>How to Create a Basic Plugin</t>
-  </si>
-  <si>
-    <t>https://www.sitepoint.com/</t>
-  </si>
-  <si>
-    <t>Articals</t>
-  </si>
-  <si>
-    <t>https://twitter.github.io/typeahead.js/</t>
-  </si>
-  <si>
-    <t>https://github.com/twitter/typeahead.js</t>
-  </si>
-  <si>
-    <t>a flexible JavaScript library that provides a strong foundation for building robust typeaheads (AUTO SUGGESTION)</t>
-  </si>
-  <si>
-    <t>SUGGESTION</t>
-  </si>
-  <si>
-    <t>Don’t Use</t>
+    <t>https://stackoverflow.com/questions/361271/best-free-controls-for-net</t>
+  </si>
+  <si>
+    <t>Best Free Controls for .NET [closed] free ui for winforms</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Reference/788434/List-of-rd-Party-NET-UI-Reporting-Components</t>
+  </si>
+  <si>
+    <t>List of 3rd Party .NET UI &amp; Reporting Components</t>
   </si>
 </sst>
 </file>
@@ -945,7 +832,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1011,15 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1358,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,14 +1258,14 @@
     <col min="14" max="14" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
       <c r="G1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -1411,7 +1289,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1433,7 +1311,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3"/>
@@ -1446,7 +1324,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -1468,7 +1346,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
@@ -1481,7 +1359,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1503,7 +1381,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3"/>
@@ -1516,7 +1394,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -1538,7 +1416,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -1551,7 +1429,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>5</v>
       </c>
@@ -1573,7 +1451,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
@@ -1608,7 +1486,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
@@ -1621,7 +1499,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1643,7 +1521,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -1661,7 +1539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
@@ -1671,7 +1549,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -2568,7 +2446,7 @@
       <c r="A115" s="17">
         <v>57</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D115" s="19" t="s">
@@ -2585,7 +2463,7 @@
       <c r="A117" s="17">
         <v>58</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -2598,12 +2476,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D118" s="19"/>
-    </row>
-    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>229</v>
@@ -2611,19 +2486,16 @@
       <c r="D119" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F119" s="7" t="s">
         <v>230</v>
       </c>
       <c r="H119" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D120" s="19"/>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>231</v>
@@ -2635,46 +2507,6 @@
         <v>232</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D122" s="19"/>
-    </row>
-    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="17">
-        <v>61</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H123" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D124" s="19"/>
-    </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="17">
-        <v>62</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H125" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2740,10 +2572,10 @@
     <hyperlink ref="B109" r:id="rId58"/>
     <hyperlink ref="B111" r:id="rId59"/>
     <hyperlink ref="B113" r:id="rId60"/>
-    <hyperlink ref="B119" r:id="rId61"/>
-    <hyperlink ref="B121" r:id="rId62"/>
-    <hyperlink ref="B123" r:id="rId63"/>
-    <hyperlink ref="B125" r:id="rId64"/>
+    <hyperlink ref="B115" r:id="rId61"/>
+    <hyperlink ref="B117" r:id="rId62"/>
+    <hyperlink ref="B119" r:id="rId63"/>
+    <hyperlink ref="B121" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
@@ -2762,11 +2594,11 @@
   <cols>
     <col min="2" max="2" width="70.88671875" style="7" customWidth="1"/>
     <col min="5" max="5" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="56.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="7" customWidth="1"/>
     <col min="8" max="8" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
@@ -2787,7 +2619,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2801,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2815,7 +2647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2836,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,7 +2682,7 @@
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -2861,7 +2693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -2872,10 +2704,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -2886,7 +2718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -2897,7 +2729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -2908,7 +2740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2919,7 +2751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -2930,7 +2762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -2941,7 +2773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -2952,7 +2784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>9</v>
       </c>
@@ -2961,28 +2793,6 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>10</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2996,11 +2806,9 @@
     <hyperlink ref="B16" r:id="rId7"/>
     <hyperlink ref="B18" r:id="rId8"/>
     <hyperlink ref="B20" r:id="rId9"/>
-    <hyperlink ref="B22" r:id="rId10"/>
-    <hyperlink ref="B24" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3015,12 +2823,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="23" customWidth="1"/>
-    <col min="2" max="2" width="82.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="82.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="57.44140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>59</v>
       </c>
@@ -3034,7 +2842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -3048,7 +2856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3062,7 +2870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -3076,7 +2884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -3090,7 +2898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -3104,7 +2912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -3118,7 +2926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -3132,7 +2940,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -3146,7 +2954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>9</v>
       </c>
@@ -3160,7 +2968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>10</v>
       </c>
@@ -3174,7 +2982,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>11</v>
       </c>
@@ -3188,7 +2996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>12</v>
       </c>
@@ -3202,7 +3010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>13</v>
       </c>
@@ -3216,7 +3024,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>14</v>
       </c>
@@ -3230,7 +3038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>15</v>
       </c>
@@ -3244,7 +3052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>16</v>
       </c>
@@ -3272,7 +3080,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>18</v>
       </c>
@@ -3286,7 +3094,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>19</v>
       </c>
@@ -3300,7 +3108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>20</v>
       </c>
@@ -3314,7 +3122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>21</v>
       </c>
@@ -3328,7 +3136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>22</v>
       </c>
@@ -3342,7 +3150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>23</v>
       </c>
@@ -3400,11 +3208,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="23"/>
-    <col min="2" max="3" width="62.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="62.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
@@ -3418,7 +3226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -3432,7 +3240,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3446,7 +3254,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>3</v>
       </c>
@@ -3460,7 +3268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>4</v>
       </c>
@@ -3474,7 +3282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -3488,7 +3296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -3502,7 +3310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>7</v>
       </c>
@@ -3516,13 +3324,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -3550,336 +3358,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="23"/>
-    <col min="2" max="2" width="62.5546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>4</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>5</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>7</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>8</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>9</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>10</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="C16" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="C18" r:id="rId11"/>
-    <hyperlink ref="B20" r:id="rId12"/>
-    <hyperlink ref="B22" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="16.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="107.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29">
-        <v>42737</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="29">
-        <v>42737</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="q=best+image+upload+or+capture+plugins+in+jquery"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>